--- a/spliced/falling/2023-03-21_15-35-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.389985084533691</v>
+        <v>-0.03897037506103547</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08737320899963376</v>
+        <v>-0.04966262578964246</v>
       </c>
       <c r="E2" t="n">
-        <v>1.122915458679199</v>
+        <v>0.6067050054669385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.266642689704895</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="G2" t="n">
-        <v>1.489289522171021</v>
+        <v>0.1944078654050827</v>
       </c>
       <c r="H2" t="n">
-        <v>1.197143197059631</v>
+        <v>-0.0245873257517814</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.129088830947885</v>
+        <v>-0.3774656057357791</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5355502605438246</v>
+        <v>-0.08384630084037778</v>
       </c>
       <c r="E3" t="n">
-        <v>2.341251343488698</v>
+        <v>1.005563378334046</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5832235813140869</v>
+        <v>0.3005456924438476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5451972484588623</v>
+        <v>0.8894197940826416</v>
       </c>
       <c r="H3" t="n">
-        <v>0.808174729347229</v>
+        <v>0.086895577609539</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.376520133018492</v>
+        <v>-0.389985084533691</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8961358070373535</v>
+        <v>-0.08737320899963376</v>
       </c>
       <c r="E4" t="n">
-        <v>3.528440594673157</v>
+        <v>1.122915458679199</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5074763298034668</v>
+        <v>0.266642689704895</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.9810495972633362</v>
+        <v>1.489289522171021</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5829181671142578</v>
+        <v>1.197143197059631</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.786781752109524</v>
+        <v>-3.129088830947885</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.147766584157945</v>
+        <v>-0.5355502605438246</v>
       </c>
       <c r="E5" t="n">
-        <v>5.211621630191809</v>
+        <v>2.341251343488698</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9239336848258972</v>
+        <v>-0.5832235813140869</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2371684312820434</v>
+        <v>0.5451972484588623</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1962404549121856</v>
+        <v>0.808174729347229</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.074200153350837</v>
+        <v>-4.376520133018492</v>
       </c>
       <c r="D6" t="n">
-        <v>1.294980049133306</v>
+        <v>-0.8961358070373535</v>
       </c>
       <c r="E6" t="n">
-        <v>4.674310564994808</v>
+        <v>3.528440594673157</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8011497855186462</v>
+        <v>-0.5074763298034668</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.048092007637024</v>
+        <v>-0.9810495972633362</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0548251569271087</v>
+        <v>0.5829181671142578</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33.04098894596114</v>
+        <v>-2.786781752109524</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.460391509532979</v>
+        <v>-1.147766584157945</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.8664929449559</v>
+        <v>5.211621630191809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3634648323059082</v>
+        <v>-0.9239336848258972</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29381263256073</v>
+        <v>-0.2371684312820434</v>
       </c>
       <c r="H7" t="n">
-        <v>1.935221076011657</v>
+        <v>0.1962404549121856</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.17409253120405</v>
+        <v>1.074200153350837</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.13667659759519</v>
+        <v>1.294980049133306</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.41260833740226</v>
+        <v>4.674310564994808</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.552626132965088</v>
+        <v>-0.8011497855186462</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.393509149551392</v>
+        <v>-1.048092007637024</v>
       </c>
       <c r="H8" t="n">
-        <v>1.527773976325989</v>
+        <v>-0.0548251569271087</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.199231290817252</v>
+        <v>33.04098894596114</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.979123908281309</v>
+        <v>-6.460391509532979</v>
       </c>
       <c r="E9" t="n">
-        <v>2.645077538490293</v>
+        <v>-13.8664929449559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7554876208305359</v>
+        <v>0.3634648323059082</v>
       </c>
       <c r="G9" t="n">
-        <v>1.477530360221863</v>
+        <v>1.29381263256073</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5998696684837341</v>
+        <v>1.935221076011657</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.133084297180169</v>
+        <v>33.17409253120405</v>
       </c>
       <c r="D10" t="n">
-        <v>1.222284126281733</v>
+        <v>-12.13667659759519</v>
       </c>
       <c r="E10" t="n">
-        <v>2.30235185623169</v>
+        <v>-16.41260833740226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3274237811565399</v>
+        <v>-4.552626132965088</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0329867228865623</v>
+        <v>-3.393509149551392</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4276056587696075</v>
+        <v>1.527773976325989</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.011236310005188</v>
+        <v>-4.199231290817252</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08591727167367935</v>
+        <v>-1.979123908281309</v>
       </c>
       <c r="E11" t="n">
-        <v>1.941863000392914</v>
+        <v>2.645077538490293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0789543315768241</v>
+        <v>0.7554876208305359</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0847575515508651</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1519527286291122</v>
+        <v>-0.5998696684837341</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.760050582885739</v>
+        <v>-1.133084297180169</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07424210608005596</v>
+        <v>1.222284126281733</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6869683876633619</v>
+        <v>2.30235185623169</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0221438650041818</v>
+        <v>0.3274237811565399</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1513418704271316</v>
+        <v>-0.0329867228865623</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.171500414609909</v>
+        <v>-0.4276056587696075</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.4296665787696987</v>
+        <v>1.011236310005188</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05021018907427618</v>
+        <v>-0.08591727167367935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4772178567945989</v>
+        <v>1.941863000392914</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0762054398655891</v>
+        <v>0.0789543315768241</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0978911519050598</v>
+        <v>-0.0847575515508651</v>
       </c>
       <c r="H13" t="n">
-        <v>0.366213709115982</v>
+        <v>-0.1519527286291122</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.509320116043069</v>
+        <v>1.760050582885739</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4450684934854586</v>
+        <v>-0.07424210608005596</v>
       </c>
       <c r="E14" t="n">
-        <v>1.374938857555391</v>
+        <v>0.6869683876633619</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2686280012130737</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="G14" t="n">
-        <v>1.315498352050781</v>
+        <v>0.1513418704271316</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0265726372599601</v>
+        <v>-0.171500414609909</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.49392051696776</v>
+        <v>-0.4296665787696987</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.748301430046552</v>
+        <v>-0.05021018907427618</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9690718531608501</v>
+        <v>0.4772178567945989</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1499674171209335</v>
+        <v>0.0762054398655891</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.5490151643753052</v>
+        <v>-0.0978911519050598</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4234823286533355</v>
+        <v>0.366213709115982</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5127081871032715</v>
+        <v>-1.509320116043069</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.141617327928543</v>
+        <v>-0.4450684934854586</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.73384278640151</v>
+        <v>1.374938857555391</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.09239336848258969</v>
+        <v>-0.2686280012130737</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09071348607540131</v>
+        <v>1.315498352050781</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0775798857212066</v>
+        <v>-0.0265726372599601</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1017783880233756</v>
+        <v>2.49392051696776</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3632039599120608</v>
+        <v>-1.748301430046552</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1947979252785462</v>
+        <v>0.9690718531608501</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0155770638957619</v>
+        <v>-0.1499674171209335</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1032362282276153</v>
+        <v>-0.5490151643753052</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09071348607540131</v>
+        <v>0.4234823286533355</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2760831832885773</v>
+        <v>-0.5127081871032715</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05902776718139471</v>
+        <v>-0.141617327928543</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4707315444946266</v>
+        <v>-0.73384278640151</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4306600093841553</v>
+        <v>-0.09239336848258969</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7470881938934326</v>
+        <v>-0.09071348607540131</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1643227487802505</v>
+        <v>0.0775798857212066</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7326052427291816</v>
+        <v>-0.1017783880233756</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04417074620723105</v>
+        <v>0.3632039599120608</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2964785575866773</v>
+        <v>0.1947979252785462</v>
       </c>
       <c r="F19" t="n">
-        <v>1.219439744949341</v>
+        <v>0.0155770638957619</v>
       </c>
       <c r="G19" t="n">
-        <v>1.55587375164032</v>
+        <v>-0.1032362282276153</v>
       </c>
       <c r="H19" t="n">
-        <v>0.009468411095440299</v>
+        <v>0.09071348607540131</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.5065834045410164</v>
+        <v>0.2760831832885773</v>
       </c>
       <c r="D20" t="n">
-        <v>1.347906202077864</v>
+        <v>0.05902776718139471</v>
       </c>
       <c r="E20" t="n">
-        <v>1.883451831340787</v>
+        <v>0.4707315444946266</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3419318199157715</v>
+        <v>0.4306600093841553</v>
       </c>
       <c r="G20" t="n">
-        <v>2.081828832626343</v>
+        <v>0.7470881938934326</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5186246037483215</v>
+        <v>-0.1643227487802505</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.5159368515014648</v>
+        <v>0.7326052427291816</v>
       </c>
       <c r="D21" t="n">
-        <v>1.026000052690506</v>
+        <v>-0.04417074620723105</v>
       </c>
       <c r="E21" t="n">
-        <v>1.219268858432769</v>
+        <v>0.2964785575866773</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0778853222727775</v>
+        <v>1.219439744949341</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0609338097274303</v>
+        <v>1.55587375164032</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2976440787315368</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.495560121536254</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.3463274449110002</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6439041137695279</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.3110831379890442</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.2634356319904327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.3216205537319183</v>
+        <v>0.009468411095440299</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-08/data_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.03897037506103547</v>
+        <v>0.2728629112243653</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04966262578964246</v>
+        <v>-0.005532175302505469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6067050054669385</v>
+        <v>0.17908151820302</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0704022198915481</v>
+        <v>0.0500909499824047</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1944078654050827</v>
+        <v>0.0342084541916847</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0245873257517814</v>
+        <v>0.0232128798961639</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3774656057357791</v>
+        <v>-0.1289855480194095</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08384630084037778</v>
+        <v>-0.0322514295578003</v>
       </c>
       <c r="E3" t="n">
-        <v>1.005563378334046</v>
+        <v>0.2833916515111924</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3005456924438476</v>
+        <v>0.0068722339347004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8894197940826416</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="H3" t="n">
-        <v>0.086895577609539</v>
+        <v>0.0390953756868839</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.389985084533691</v>
+        <v>-0.2541066646575928</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08737320899963376</v>
+        <v>-0.01140816211700431</v>
       </c>
       <c r="E4" t="n">
-        <v>1.122915458679199</v>
+        <v>0.3126487381756305</v>
       </c>
       <c r="F4" t="n">
-        <v>0.266642689704895</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="G4" t="n">
-        <v>1.489289522171021</v>
+        <v>0.0290160998702049</v>
       </c>
       <c r="H4" t="n">
-        <v>1.197143197059631</v>
+        <v>0.1440114825963974</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.129088830947885</v>
+        <v>-0.1588943481445311</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5355502605438246</v>
+        <v>-0.05039391517639156</v>
       </c>
       <c r="E5" t="n">
-        <v>2.341251343488698</v>
+        <v>0.1764491081237791</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5832235813140869</v>
+        <v>0.0100792767480015</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5451972484588623</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="H5" t="n">
-        <v>0.808174729347229</v>
+        <v>0.0288633834570646</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.376520133018492</v>
+        <v>0.003789019584655856</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8961358070373535</v>
+        <v>-0.07255983948707578</v>
       </c>
       <c r="E6" t="n">
-        <v>3.528440594673157</v>
+        <v>0.1795819453895092</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5074763298034668</v>
+        <v>-0.0282525178045034</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.9810495972633362</v>
+        <v>-0.020616702735424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5829181671142578</v>
+        <v>-0.0172569435089826</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.786781752109524</v>
+        <v>0.0466578006744384</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.147766584157945</v>
+        <v>-0.03053182363510123</v>
       </c>
       <c r="E7" t="n">
-        <v>5.211621630191809</v>
+        <v>0.2458087503910065</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9239336848258972</v>
+        <v>-0.0167987942695617</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2371684312820434</v>
+        <v>-0.0216857157647609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1962404549121856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.074200153350837</v>
+        <v>-0.2323491334915166</v>
       </c>
       <c r="D8" t="n">
-        <v>1.294980049133306</v>
+        <v>-0.003547763824462882</v>
       </c>
       <c r="E8" t="n">
-        <v>4.674310564994808</v>
+        <v>0.2952604919672013</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8011497855186462</v>
+        <v>-0.0178678091615438</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.048092007637024</v>
+        <v>0.0054977871477603</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0548251569271087</v>
+        <v>0.0299323964864015</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.04098894596114</v>
+        <v>-0.07431058883666952</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.460391509532979</v>
+        <v>0.007624650001525833</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.8664929449559</v>
+        <v>0.2976654559373855</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3634648323059082</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29381263256073</v>
+        <v>0.00534507073462</v>
       </c>
       <c r="H9" t="n">
-        <v>1.935221076011657</v>
+        <v>0.0030543261673301</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.17409253120405</v>
+        <v>0.08380470275878904</v>
       </c>
       <c r="D10" t="n">
-        <v>-12.13667659759519</v>
+        <v>0.005895948410034098</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.41260833740226</v>
+        <v>0.3545163981616498</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.552626132965088</v>
+        <v>-0.0394008085131645</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.393509149551392</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="H10" t="n">
-        <v>1.527773976325989</v>
+        <v>0.011148290708661</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.199231290817252</v>
+        <v>-0.03897037506103547</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.979123908281309</v>
+        <v>-0.04966262578964246</v>
       </c>
       <c r="E11" t="n">
-        <v>2.645077538490293</v>
+        <v>0.6067050054669385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7554876208305359</v>
+        <v>-0.0704022198915481</v>
       </c>
       <c r="G11" t="n">
-        <v>1.477530360221863</v>
+        <v>0.1944078654050827</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5998696684837341</v>
+        <v>-0.0245873257517814</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.133084297180169</v>
+        <v>-0.3774656057357791</v>
       </c>
       <c r="D12" t="n">
-        <v>1.222284126281733</v>
+        <v>-0.08384630084037778</v>
       </c>
       <c r="E12" t="n">
-        <v>2.30235185623169</v>
+        <v>1.005563378334046</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3274237811565399</v>
+        <v>0.3005456924438476</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0329867228865623</v>
+        <v>0.8894197940826416</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4276056587696075</v>
+        <v>0.086895577609539</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.011236310005188</v>
+        <v>-0.389985084533691</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08591727167367935</v>
+        <v>-0.08737320899963376</v>
       </c>
       <c r="E13" t="n">
-        <v>1.941863000392914</v>
+        <v>1.122915458679199</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0789543315768241</v>
+        <v>0.266642689704895</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0847575515508651</v>
+        <v>1.489289522171021</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1519527286291122</v>
+        <v>1.197143197059631</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.760050582885739</v>
+        <v>-3.129088830947885</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07424210608005596</v>
+        <v>-0.5355502605438246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6869683876633619</v>
+        <v>2.341251343488698</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0221438650041818</v>
+        <v>-0.5832235813140869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1513418704271316</v>
+        <v>0.5451972484588623</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.171500414609909</v>
+        <v>0.808174729347229</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.4296665787696987</v>
+        <v>-4.376520133018492</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05021018907427618</v>
+        <v>-0.8961358070373535</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4772178567945989</v>
+        <v>3.528440594673157</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0762054398655891</v>
+        <v>-0.5074763298034668</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0978911519050598</v>
+        <v>-0.9810495972633362</v>
       </c>
       <c r="H15" t="n">
-        <v>0.366213709115982</v>
+        <v>0.5829181671142578</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.509320116043069</v>
+        <v>-2.786781752109524</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4450684934854586</v>
+        <v>-1.147766584157945</v>
       </c>
       <c r="E16" t="n">
-        <v>1.374938857555391</v>
+        <v>5.211621630191809</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2686280012130737</v>
+        <v>-0.9239336848258972</v>
       </c>
       <c r="G16" t="n">
-        <v>1.315498352050781</v>
+        <v>-0.2371684312820434</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0265726372599601</v>
+        <v>0.1962404549121856</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.49392051696776</v>
+        <v>1.074200153350837</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.748301430046552</v>
+        <v>1.294980049133306</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9690718531608501</v>
+        <v>4.674310564994808</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1499674171209335</v>
+        <v>-0.8011497855186462</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5490151643753052</v>
+        <v>-1.048092007637024</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4234823286533355</v>
+        <v>-0.0548251569271087</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.5127081871032715</v>
+        <v>33.04098894596114</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.141617327928543</v>
+        <v>-6.460391509532979</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.73384278640151</v>
+        <v>-13.8664929449559</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09239336848258969</v>
+        <v>0.3634648323059082</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09071348607540131</v>
+        <v>1.29381263256073</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0775798857212066</v>
+        <v>1.935221076011657</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1017783880233756</v>
+        <v>33.17409253120405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3632039599120608</v>
+        <v>-12.13667659759519</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1947979252785462</v>
+        <v>-16.41260833740226</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0155770638957619</v>
+        <v>-4.552626132965088</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1032362282276153</v>
+        <v>-3.393509149551392</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09071348607540131</v>
+        <v>1.527773976325989</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2760831832885773</v>
+        <v>-4.199231290817252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05902776718139471</v>
+        <v>-1.979123908281309</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4707315444946266</v>
+        <v>2.645077538490293</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4306600093841553</v>
+        <v>0.7554876208305359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7470881938934326</v>
+        <v>1.477530360221863</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1643227487802505</v>
+        <v>-0.5998696684837341</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.133084297180169</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.222284126281733</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.30235185623169</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3274237811565399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0329867228865623</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.4276056587696075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.011236310005188</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.08591727167367935</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.941863000392914</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0789543315768241</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0847575515508651</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1519527286291122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.760050582885739</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.07424210608005596</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6869683876633619</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0221438650041818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1513418704271316</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.171500414609909</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4296665787696987</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.05021018907427618</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4772178567945989</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0762054398655891</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0978911519050598</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.366213709115982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.509320116043069</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.4450684934854586</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.374938857555391</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2686280012130737</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.315498352050781</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0265726372599601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.49392051696776</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.748301430046552</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9690718531608501</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1499674171209335</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.5490151643753052</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4234823286533355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5127081871032715</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.141617327928543</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.73384278640151</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.09239336848258969</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.09071348607540131</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0775798857212066</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1017783880233756</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3632039599120608</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1947979252785462</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0155770638957619</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.1032362282276153</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.09071348607540131</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2760831832885773</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.05902776718139471</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4707315444946266</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4306600093841553</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7470881938934326</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1643227487802505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>0.7326052427291816</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>-0.04417074620723105</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>0.2964785575866773</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>1.219439744949341</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>1.55587375164032</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>0.009468411095440299</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5065834045410164</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.347906202077864</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.883451831340787</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.3419318199157715</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.081828832626343</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.5186246037483215</v>
       </c>
     </row>
   </sheetData>
